--- a/biology/Botanique/Tillandsia_hieronymii/Tillandsia_hieronymii.xlsx
+++ b/biology/Botanique/Tillandsia_hieronymii/Tillandsia_hieronymii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia hieronymii Mez est une plante de la famille des Bromeliaceae.
 Le terme hieronymii est une dédicace au botaniste allemand G.H. Hieronymus, collecteur de la plante.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia hieronymii Mez in C.DC., Monogr. Phan. 9: 876, n° 243 (1896) (pro « Hieronymi »)
-Diagnose originale[1] :
+Diagnose originale :
 « foliis caulem conspicuum distiche vaginantibus, 15-25 mm. longis, cylindrico-subulatis, apice obtusiusculis; scapo semper manifesto, terminali, florem singulum apice gerente; bractea trinervia, quam sepala paullo breviore ; sepalis antico cum reliquis ad 1,5 mm., posticis inter sese ad 2,5 mm. connatis; petalis minutis ; staminibus profunde inclusis, stylum superantibus. »
-Type : Mez[1] cite de nombreux spécimens sans préciser explicitement le choix d'un type parmi eux. Aucune illustration n'est associée au protologue et qui pourrait en tenir lieu.
+Type : Mez cite de nombreux spécimens sans préciser explicitement le choix d'un type parmi eux. Aucune illustration n'est associée au protologue et qui pourrait en tenir lieu.
 leg. G.H. Hieronymus, n° 124, 1876-11-12, pro « Tillandsia propinqua Gay » ; « Córdoba » ; Lectotypus B (B 10 0243353)
 leg. G.H. Hieronymus, s.n., 1876-11-12, pro « Tillandsia propinqua Gay » ; « An Bäumen bei Córdoba » ; Isolectotypus B (B 10 0243355)
 leg. G.H. Hieronymus, n° 124, 1876-11-12 ; « Argentina. Cordoba. » ; Isolectotypus US National Herbarium (US 00089212)
@@ -551,11 +565,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-(aucune)
-Synonymie taxonomique
-Tillandsia capillaris Ruiz &amp; Pav[2].
-Tillandsia propinqua Griseb. non Gay[1]</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(aucune)</t>
         </is>
       </c>
     </row>
@@ -580,10 +596,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tillandsia capillaris Ruiz &amp; Pav.
+Tillandsia propinqua Griseb. non Gay</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -606,16 +633,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante vivace herbacée ; épiphyte[1].
-Habitat : très souvent en épiphyte sur Celtis tala[1].
-Altitude : 3300 m[1].</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,15 +661,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Amérique du Sud :
- Argentine
-Córdoba [1]
-Salta[1]</t>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Typologie : plante vivace herbacée ; épiphyte.
+Habitat : très souvent en épiphyte sur Celtis tala.
+Altitude : 3300 m.</t>
         </is>
       </c>
     </row>
@@ -671,10 +695,47 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Amérique du Sud :
+ Argentine
+Córdoba 
+Salta</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tillandsia_hieronymii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_hieronymii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
